--- a/medicine/Bioéthique/Robert_Spaemann/Robert_Spaemann.xlsx
+++ b/medicine/Bioéthique/Robert_Spaemann/Robert_Spaemann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert Spaemann (né à Berlin le 5 mai 1927 et mort le 10 décembre 2018[1] à Stuttgart) est un philosophe allemand catholique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert Spaemann (né à Berlin le 5 mai 1927 et mort le 10 décembre 2018 à Stuttgart) est un philosophe allemand catholique.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Spaemann étudie à l'université de Münster, où il obtient son habilitation en 1962. Il enseigne ensuite la philosophie, successivement à Stuttgart (de 1962 à 1968), à Heidelberg (de 1968 à 1972) et à Munich jusqu'à sa retraite en 1992.
 Le philosophe s'intéresse principalement à l'éthique fondée sur le christianisme. Cela le conduit à se prononcer publiquement contre l'arme atomique, l'euthanasie et l'avortement et à développer une critique de l'utilitarisme. En 2006, il participe à la réunion de philosophes et de scientifiques organisée par le pape Benoît XVI à Castel Gandolfo au sujet de l'évolution (livre des résumés : Creazione ed evoluzione, Edizioni Dehoniane à Bologne).
-Il écrit notamment dans les revues Communio et Catholica[2].
-Jusqu'au 31 décembre 2016, Spaemann est membre de l'Académie pontificale pour la vie[3].
+Il écrit notamment dans les revues Communio et Catholica.
+Jusqu'au 31 décembre 2016, Spaemann est membre de l'Académie pontificale pour la vie.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Officier des Palmes académiques
 Officier de l'ordre du Mérite de la République fédérale d'Allemagne
@@ -580,17 +596,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publications en français
-Notions fondamentales de morale (trad. Stéphane Robilliard), Paris, Champs Flammarion, 1982.
+          <t>Publications en français</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Notions fondamentales de morale (trad. Stéphane Robilliard), Paris, Champs Flammarion, 1982.
 Bonheur et bienveillance. Essai sur l'éthique (trad. Stéphane Robillard), Paris, PUF, 1997.
 Collab., dans Claude Barthe (dir.), Reconstruire la liturgie, Paris, François-Xavier de Guibert, 1997.
 Collab., dans Christoph Schönborn (dir.), Création et évolution : une journée de réflexion avec Benoît XVI, Paris, Parole et Silence, 2007.
 Un philosophe face à la révolution. La pensée politique de Louis de Bonald (trad. Stéphane Robilliard), Paris, Hora Decima, 2008.
 Avec Stéphen de Petiville, Nul ne peut servir deux maîtres, Paris, Hora Decima, 2010.
 Les Personnes. Essai sur la différence entre « quelque chose » et « quelqu'un » (trad. Stéphane Robilliard), Paris, Cerf, 2010.
-Chasser le naturel ? (trad. Stéphane Robilliard), Paris, Presses universitaires de l'IPC, 2015.
-Publications en allemand
-(de) Die Frage Wozu, Munich, Piper-Verlag, 1981.
+Chasser le naturel ? (trad. Stéphane Robilliard), Paris, Presses universitaires de l'IPC, 2015.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Robert_Spaemann</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_Spaemann</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications en allemand</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(de) Die Frage Wozu, Munich, Piper-Verlag, 1981.
 (de) Das Natürliche und das Vernünftige. Essays zur Anthropologie, 1987.
 (de) Glück und Wohlwollen: Versuch über Ethik, Klett-Cotta, Stuttgart, 1989.
 (de) Personen, Klett-Cotta, Stuttgart, 1996.
